--- a/users.xlsx
+++ b/users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Spectra\IdeaProjects\ExcelNotificator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA21E5BB-D93F-4A67-92B6-9CFC3CCA1C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E9547B-A685-4DEE-A122-A553CBB4FAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5E7FF6E8-BA11-4F8C-BE68-64F1291D8F72}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{5E7FF6E8-BA11-4F8C-BE68-64F1291D8F72}"/>
   </bookViews>
   <sheets>
     <sheet name="Notification" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>Алексеев</t>
   </si>
   <si>
-    <t>mail</t>
-  </si>
-  <si>
     <t>Student</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>Adult</t>
+  </si>
+  <si>
+    <t>mail1</t>
   </si>
 </sst>
 </file>
@@ -416,7 +416,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -447,24 +447,24 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/users.xlsx
+++ b/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Spectra\IdeaProjects\ExcelNotificator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E9547B-A685-4DEE-A122-A553CBB4FAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4A8451-ABFA-49D7-9D5C-10048C3143CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{5E7FF6E8-BA11-4F8C-BE68-64F1291D8F72}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Имя</t>
   </si>
@@ -54,23 +54,38 @@
     <t>Иванов</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>Adult</t>
   </si>
   <si>
-    <t>mail1</t>
+    <t>almaximys@yandex.ru</t>
+  </si>
+  <si>
+    <t>qwddaslkaksndjndiqindnqwidnwqndqw@d.com</t>
+  </si>
+  <si>
+    <t>Крикунов</t>
+  </si>
+  <si>
+    <t>excelnotificator@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -94,13 +109,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -413,16 +431,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FAC5E40-D241-41C4-8A3D-01066F6B104D}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="40.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -446,8 +465,8 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -460,14 +479,33 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{D3984BFD-469D-47A2-9A8A-CB35C2B606B0}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{DD84A8A9-F87C-4CB4-805A-276B98489B6B}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{6DA9D47A-FA77-410D-986B-CEE23B47523B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>